--- a/DataFiles/Histograms/feature_hists.xlsx
+++ b/DataFiles/Histograms/feature_hists.xlsx
@@ -1859,12 +1859,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="485600928"/>
-        <c:axId val="485601488"/>
-        <c:axId val="258101920"/>
+        <c:axId val="260174304"/>
+        <c:axId val="260171504"/>
+        <c:axId val="349717968"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="485600928"/>
+        <c:axId val="260174304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485601488"/>
+        <c:crossAx val="260171504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1965,7 +1965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485601488"/>
+        <c:axId val="260171504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,12 +2072,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485600928"/>
+        <c:crossAx val="260174304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="258101920"/>
+        <c:axId val="349717968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,7 +2113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485601488"/>
+        <c:crossAx val="260171504"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
       </c:serAx>
@@ -2841,11 +2841,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="485610448"/>
-        <c:axId val="485611008"/>
+        <c:axId val="351309616"/>
+        <c:axId val="461917136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="485610448"/>
+        <c:axId val="351309616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,7 +2944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485611008"/>
+        <c:crossAx val="461917136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2952,7 +2952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485611008"/>
+        <c:axId val="461917136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2993,7 +2993,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800" baseline="0"/>
-                  <a:t>Count</a:t>
+                  <a:t>Number of People</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3059,7 +3059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485610448"/>
+        <c:crossAx val="351309616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3846,12 +3846,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="484046352"/>
-        <c:axId val="484046912"/>
-        <c:axId val="418110560"/>
+        <c:axId val="363759616"/>
+        <c:axId val="363760176"/>
+        <c:axId val="349716096"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="484046352"/>
+        <c:axId val="363759616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3944,7 +3944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484046912"/>
+        <c:crossAx val="363760176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3952,7 +3952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="484046912"/>
+        <c:axId val="363760176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4059,12 +4059,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484046352"/>
+        <c:crossAx val="363759616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="418110560"/>
+        <c:axId val="349716096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,7 +4100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484046912"/>
+        <c:crossAx val="363760176"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
       </c:serAx>
@@ -4828,11 +4828,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="494399744"/>
-        <c:axId val="494400304"/>
+        <c:axId val="363765776"/>
+        <c:axId val="363766336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="494399744"/>
+        <c:axId val="363765776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4931,7 +4931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494400304"/>
+        <c:crossAx val="363766336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4939,7 +4939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="494400304"/>
+        <c:axId val="363766336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4980,7 +4980,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800" baseline="0"/>
-                  <a:t>Count</a:t>
+                  <a:t>Number of People</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5046,7 +5046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494399744"/>
+        <c:crossAx val="363765776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5821,12 +5821,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="428534176"/>
-        <c:axId val="251458496"/>
-        <c:axId val="258100048"/>
+        <c:axId val="363771936"/>
+        <c:axId val="363772496"/>
+        <c:axId val="349717344"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="428534176"/>
+        <c:axId val="363771936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5858,7 +5858,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5919,7 +5918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251458496"/>
+        <c:crossAx val="363772496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5927,7 +5926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251458496"/>
+        <c:axId val="363772496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5973,7 +5972,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6034,12 +6032,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428534176"/>
+        <c:crossAx val="363771936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="258100048"/>
+        <c:axId val="349717344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6075,7 +6073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251458496"/>
+        <c:crossAx val="363772496"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
       </c:serAx>
@@ -6773,11 +6771,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="251464096"/>
-        <c:axId val="251464656"/>
+        <c:axId val="363778096"/>
+        <c:axId val="363778656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="251464096"/>
+        <c:axId val="363778096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6809,7 +6807,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6876,7 +6873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251464656"/>
+        <c:crossAx val="363778656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6884,7 +6881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251464656"/>
+        <c:axId val="363778656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6930,7 +6927,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6991,7 +6987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251464096"/>
+        <c:crossAx val="363778096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7005,7 +7001,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10778,7 +10773,7 @@
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AM52" sqref="AM52"/>
+      <selection activeCell="AV40" sqref="AV40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10875,27 +10870,27 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="L2">
-        <f>COUNTIF(D$2:D$200,"&lt;"&amp;$K2)</f>
+        <f t="shared" ref="L2:Q2" si="1">COUNTIF(D$2:D$200,"&lt;"&amp;$K2)</f>
         <v>1</v>
       </c>
       <c r="M2">
-        <f>COUNTIF(E$2:E$200,"&lt;"&amp;$K2)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="N2">
-        <f>COUNTIF(F$2:F$200,"&lt;"&amp;$K2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O2">
-        <f>COUNTIF(G$2:G$200,"&lt;"&amp;$K2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>COUNTIF(H$2:H$200,"&lt;"&amp;$K2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>COUNTIF(I$2:I$200,"&lt;"&amp;$K2)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -10937,27 +10932,27 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L3">
-        <f>COUNTIFS(D$2:D$200, "&lt;"&amp;$K3, D$2:D$200, "&gt;"&amp;$K2)</f>
+        <f t="shared" ref="L3:Q3" si="2">COUNTIFS(D$2:D$200, "&lt;"&amp;$K3, D$2:D$200, "&gt;"&amp;$K2)</f>
         <v>1</v>
       </c>
       <c r="M3">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K3, E$2:E$200, "&gt;"&amp;$K2)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N3">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K3, F$2:F$200, "&gt;"&amp;$K2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O3">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K3, G$2:G$200, "&gt;"&amp;$K2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P3">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K3, H$2:H$200, "&gt;"&amp;$K2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K3, I$2:I$200, "&gt;"&amp;$K2)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -10999,27 +10994,27 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L10" si="1">COUNTIFS(D$2:D$200, "&lt;"&amp;$K4, D$2:D$200, "&gt;"&amp;$K3)</f>
+        <f t="shared" ref="L4:L10" si="3">COUNTIFS(D$2:D$200, "&lt;"&amp;$K4, D$2:D$200, "&gt;"&amp;$K3)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K4, E$2:E$200, "&gt;"&amp;$K3)</f>
+        <f t="shared" ref="M4:Q10" si="4">COUNTIFS(E$2:E$200, "&lt;"&amp;$K4, E$2:E$200, "&gt;"&amp;$K3)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K4, F$2:F$200, "&gt;"&amp;$K3)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O4">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K4, G$2:G$200, "&gt;"&amp;$K3)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K4, H$2:H$200, "&gt;"&amp;$K3)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q4">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K4, I$2:I$200, "&gt;"&amp;$K3)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -11061,27 +11056,27 @@
         <v>0.01</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K5, E$2:E$200, "&gt;"&amp;$K4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K5, F$2:F$200, "&gt;"&amp;$K4)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O5">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K5, G$2:G$200, "&gt;"&amp;$K4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K5, H$2:H$200, "&gt;"&amp;$K4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K5, I$2:I$200, "&gt;"&amp;$K4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11123,27 +11118,27 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K6, E$2:E$200, "&gt;"&amp;$K5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K6, F$2:F$200, "&gt;"&amp;$K5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K6, G$2:G$200, "&gt;"&amp;$K5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K6, H$2:H$200, "&gt;"&amp;$K5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K6, I$2:I$200, "&gt;"&amp;$K5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11185,27 +11180,27 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K7, E$2:E$200, "&gt;"&amp;$K6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K7, F$2:F$200, "&gt;"&amp;$K6)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O7">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K7, G$2:G$200, "&gt;"&amp;$K6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K7, H$2:H$200, "&gt;"&amp;$K6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K7, I$2:I$200, "&gt;"&amp;$K6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11247,27 +11242,27 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K8, E$2:E$200, "&gt;"&amp;$K7)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K8, F$2:F$200, "&gt;"&amp;$K7)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K8, G$2:G$200, "&gt;"&amp;$K7)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P8">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K8, H$2:H$200, "&gt;"&amp;$K7)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K8, I$2:I$200, "&gt;"&amp;$K7)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11309,27 +11304,27 @@
         <v>0.02</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M9">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K9, E$2:E$200, "&gt;"&amp;$K8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K9, F$2:F$200, "&gt;"&amp;$K8)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O9">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K9, G$2:G$200, "&gt;"&amp;$K8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K9, H$2:H$200, "&gt;"&amp;$K8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K9, I$2:I$200, "&gt;"&amp;$K8)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11371,27 +11366,27 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K10, E$2:E$200, "&gt;"&amp;$K9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K10, F$2:F$200, "&gt;"&amp;$K9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K10, G$2:G$200, "&gt;"&amp;$K9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K10, H$2:H$200, "&gt;"&amp;$K9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K10, I$2:I$200, "&gt;"&amp;$K9)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11433,27 +11428,27 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L11">
-        <f>COUNTIFS(D$2:D$200, "&lt;="&amp;$K11, D$2:D$200, "&gt;"&amp;$K10)</f>
+        <f t="shared" ref="L11:Q11" si="5">COUNTIFS(D$2:D$200, "&lt;="&amp;$K11, D$2:D$200, "&gt;"&amp;$K10)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>COUNTIFS(E$2:E$200, "&lt;="&amp;$K11, E$2:E$200, "&gt;"&amp;$K10)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>COUNTIFS(F$2:F$200, "&lt;="&amp;$K11, F$2:F$200, "&gt;"&amp;$K10)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>COUNTIFS(G$2:G$200, "&lt;="&amp;$K11, G$2:G$200, "&gt;"&amp;$K10)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>COUNTIFS(H$2:H$200, "&lt;="&amp;$K11, H$2:H$200, "&gt;"&amp;$K10)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>COUNTIFS(I$2:I$200, "&lt;="&amp;$K11, I$2:I$200, "&gt;"&amp;$K10)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -11495,27 +11490,27 @@
         <v>192</v>
       </c>
       <c r="L12">
-        <f>COUNTIFS(D$2:D$200,  "&gt;"&amp;$K11)</f>
+        <f t="shared" ref="L12:Q12" si="6">COUNTIFS(D$2:D$200,  "&gt;"&amp;$K11)</f>
         <v>5</v>
       </c>
       <c r="M12">
-        <f>COUNTIFS(E$2:E$200,  "&gt;"&amp;$K11)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>COUNTIFS(F$2:F$200,  "&gt;"&amp;$K11)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O12">
-        <f>COUNTIFS(G$2:G$200,  "&gt;"&amp;$K11)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>COUNTIFS(H$2:H$200,  "&gt;"&amp;$K11)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Q12">
-        <f>COUNTIFS(I$2:I$200,  "&gt;"&amp;$K11)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -11558,23 +11553,23 @@
         <v>8</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:Q13" si="2">SUM(M2:M12)</f>
+        <f t="shared" ref="M13:Q13" si="7">SUM(M2:M12)</f>
         <v>30</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -11740,23 +11735,23 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:Q17" si="3">M13-M15</f>
+        <f t="shared" ref="M17:Q17" si="8">M13-M15</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11771,27 +11766,27 @@
         <v>5</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ref="D18:I33" si="4">IF($C18=D$1,$B18, "")</f>
+        <f t="shared" ref="D18:I33" si="9">IF($C18=D$1,$B18, "")</f>
         <v/>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.86819699677385E-2</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11806,27 +11801,27 @@
         <v>8</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4973403386405698E-3</v>
       </c>
     </row>
@@ -11841,27 +11836,27 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.76966684600149E-2</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11876,27 +11871,27 @@
         <v>4</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.5082517468218698E-4</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11911,27 +11906,27 @@
         <v>4</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5.5477388775829097E-4</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11946,27 +11941,27 @@
         <v>4</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.36822335004053E-3</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -11981,27 +11976,27 @@
         <v>8</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>6.8438186848940596E-3</v>
       </c>
     </row>
@@ -12016,27 +12011,27 @@
         <v>4</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8.5273991544194104E-4</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12051,27 +12046,27 @@
         <v>4</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5.7223675724674095E-4</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12086,27 +12081,27 @@
         <v>4</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8.8963216047216302E-4</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12121,27 +12116,27 @@
         <v>8</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.9435290595066601E-3</v>
       </c>
     </row>
@@ -12156,27 +12151,27 @@
         <v>4</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.9025761211733899E-3</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12191,27 +12186,27 @@
         <v>8</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.8413320739804201E-2</v>
       </c>
     </row>
@@ -12226,27 +12221,27 @@
         <v>8</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.7102420806703002E-3</v>
       </c>
     </row>
@@ -12261,27 +12256,27 @@
         <v>4</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.0242056900900301E-3</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12296,27 +12291,27 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.02100227793199E-3</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -12331,27 +12326,27 @@
         <v>7</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:I49" si="5">IF($C34=D$1,$B34, "")</f>
+        <f t="shared" ref="D34:I49" si="10">IF($C34=D$1,$B34, "")</f>
         <v/>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.1376470272826297E-2</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12366,27 +12361,27 @@
         <v>5</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.5127800512283498E-3</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12401,27 +12396,27 @@
         <v>7</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.3646618699739199E-3</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12436,27 +12431,27 @@
         <v>8</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.9133455300494198E-2</v>
       </c>
     </row>
@@ -12471,27 +12466,27 @@
         <v>8</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.2038078569134997E-3</v>
       </c>
     </row>
@@ -12506,27 +12501,27 @@
         <v>4</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.2785359963915301E-4</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12541,27 +12536,27 @@
         <v>6</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.6862323516745801E-2</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12576,27 +12571,27 @@
         <v>8</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.4779685483737498E-3</v>
       </c>
     </row>
@@ -12611,27 +12606,27 @@
         <v>6</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.7128842683150798E-3</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12646,27 +12641,27 @@
         <v>5</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.7417668636942304E-2</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12681,27 +12676,27 @@
         <v>4</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.1987653032905702E-4</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12716,27 +12711,27 @@
         <v>8</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.5646654404924395E-4</v>
       </c>
     </row>
@@ -12751,27 +12746,27 @@
         <v>4</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.6592790857767001E-4</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12786,27 +12781,27 @@
         <v>5</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.45994759566535E-2</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12821,27 +12816,27 @@
         <v>8</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.8092227844692002E-3</v>
       </c>
     </row>
@@ -12856,27 +12851,27 @@
         <v>4</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.9929802497583799E-3</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -12891,27 +12886,27 @@
         <v>5</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" ref="D50:I65" si="6">IF($C50=D$1,$B50, "")</f>
+        <f t="shared" ref="D50:I65" si="11">IF($C50=D$1,$B50, "")</f>
         <v/>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.07855944818665E-3</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12926,27 +12921,27 @@
         <v>8</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.8937730096502601E-2</v>
       </c>
     </row>
@@ -12961,27 +12956,27 @@
         <v>4</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.6316063886886402E-3</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12996,27 +12991,27 @@
         <v>4</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.4112045610850905E-4</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13031,27 +13026,27 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.3635195089190095E-2</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13066,27 +13061,27 @@
         <v>4</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.4312131113632498E-4</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13101,27 +13096,27 @@
         <v>7</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.72800507098466E-2</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13136,27 +13131,27 @@
         <v>8</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.2424294786235699E-2</v>
       </c>
     </row>
@@ -13171,27 +13166,27 @@
         <v>4</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.7416049061170996E-4</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13206,27 +13201,27 @@
         <v>5</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.5323082245936801E-3</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13241,27 +13236,27 @@
         <v>3</v>
       </c>
       <c r="D60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.108101944595922</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13276,27 +13271,27 @@
         <v>4</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.7630114275669902E-3</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13311,27 +13306,27 @@
         <v>7</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.8756869407973703E-2</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13346,27 +13341,27 @@
         <v>4</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.1158197312553099E-3</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13381,27 +13376,27 @@
         <v>5</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.04466013825027E-4</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13416,27 +13411,27 @@
         <v>8</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.5869709295426799E-3</v>
       </c>
     </row>
@@ -13451,27 +13446,27 @@
         <v>3</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:I70" si="7">IF($C66=D$1,$B66, "")</f>
+        <f t="shared" ref="D66:I70" si="12">IF($C66=D$1,$B66, "")</f>
         <v>0.15782949773973001</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13486,27 +13481,27 @@
         <v>8</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.40717807514633E-3</v>
       </c>
     </row>
@@ -13521,27 +13516,27 @@
         <v>4</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.4547309850461598E-4</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13556,27 +13551,27 @@
         <v>4</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.3369851008771198E-4</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13591,27 +13586,27 @@
         <v>8</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.8401889189139498E-3</v>
       </c>
     </row>
@@ -13626,7 +13621,7 @@
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="AG45" sqref="AG45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13725,27 +13720,27 @@
         <v>500</v>
       </c>
       <c r="L2">
-        <f>COUNTIF(D$2:D$200,"&lt;"&amp;$K2)</f>
+        <f t="shared" ref="L2:Q2" si="1">COUNTIF(D$2:D$200,"&lt;"&amp;$K2)</f>
         <v>1</v>
       </c>
       <c r="M2">
-        <f>COUNTIF(E$2:E$200,"&lt;"&amp;$K2)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="N2">
-        <f>COUNTIF(F$2:F$200,"&lt;"&amp;$K2)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O2">
-        <f>COUNTIF(G$2:G$200,"&lt;"&amp;$K2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P2">
-        <f>COUNTIF(H$2:H$200,"&lt;"&amp;$K2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>COUNTIF(I$2:I$200,"&lt;"&amp;$K2)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -13787,27 +13782,27 @@
         <v>1000</v>
       </c>
       <c r="L3">
-        <f>COUNTIFS(D$2:D$200, "&lt;"&amp;$K3, D$2:D$200, "&gt;"&amp;$K2)</f>
+        <f t="shared" ref="L3:Q3" si="2">COUNTIFS(D$2:D$200, "&lt;"&amp;$K3, D$2:D$200, "&gt;"&amp;$K2)</f>
         <v>1</v>
       </c>
       <c r="M3">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K3, E$2:E$200, "&gt;"&amp;$K2)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="N3">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K3, F$2:F$200, "&gt;"&amp;$K2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O3">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K3, G$2:G$200, "&gt;"&amp;$K2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K3, H$2:H$200, "&gt;"&amp;$K2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K3, I$2:I$200, "&gt;"&amp;$K2)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -13849,27 +13844,27 @@
         <v>1500</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L10" si="1">COUNTIFS(D$2:D$200, "&lt;"&amp;$K4, D$2:D$200, "&gt;"&amp;$K3)</f>
+        <f t="shared" ref="L4:L10" si="3">COUNTIFS(D$2:D$200, "&lt;"&amp;$K4, D$2:D$200, "&gt;"&amp;$K3)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K4, E$2:E$200, "&gt;"&amp;$K3)</f>
+        <f t="shared" ref="M4:Q10" si="4">COUNTIFS(E$2:E$200, "&lt;"&amp;$K4, E$2:E$200, "&gt;"&amp;$K3)</f>
         <v>3</v>
       </c>
       <c r="N4">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K4, F$2:F$200, "&gt;"&amp;$K3)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K4, G$2:G$200, "&gt;"&amp;$K3)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K4, H$2:H$200, "&gt;"&amp;$K3)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q4">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K4, I$2:I$200, "&gt;"&amp;$K3)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -13911,27 +13906,27 @@
         <v>2000</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M5">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K5, E$2:E$200, "&gt;"&amp;$K4)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="N5">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K5, F$2:F$200, "&gt;"&amp;$K4)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O5">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K5, G$2:G$200, "&gt;"&amp;$K4)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P5">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K5, H$2:H$200, "&gt;"&amp;$K4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K5, I$2:I$200, "&gt;"&amp;$K4)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13973,27 +13968,27 @@
         <v>2500</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K6, E$2:E$200, "&gt;"&amp;$K5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K6, F$2:F$200, "&gt;"&amp;$K5)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K6, G$2:G$200, "&gt;"&amp;$K5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K6, H$2:H$200, "&gt;"&amp;$K5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K6, I$2:I$200, "&gt;"&amp;$K5)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -14035,27 +14030,27 @@
         <v>3000</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K7, E$2:E$200, "&gt;"&amp;$K6)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N7">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K7, F$2:F$200, "&gt;"&amp;$K6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K7, G$2:G$200, "&gt;"&amp;$K6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K7, H$2:H$200, "&gt;"&amp;$K6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K7, I$2:I$200, "&gt;"&amp;$K6)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14097,27 +14092,27 @@
         <v>3500</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K8, E$2:E$200, "&gt;"&amp;$K7)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N8">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K8, F$2:F$200, "&gt;"&amp;$K7)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K8, G$2:G$200, "&gt;"&amp;$K7)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K8, H$2:H$200, "&gt;"&amp;$K7)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q8">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K8, I$2:I$200, "&gt;"&amp;$K7)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -14159,27 +14154,27 @@
         <v>4000</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K9, E$2:E$200, "&gt;"&amp;$K8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K9, F$2:F$200, "&gt;"&amp;$K8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K9, G$2:G$200, "&gt;"&amp;$K8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K9, H$2:H$200, "&gt;"&amp;$K8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K9, I$2:I$200, "&gt;"&amp;$K8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14221,27 +14216,27 @@
         <v>4500</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>COUNTIFS(E$2:E$200, "&lt;"&amp;$K10, E$2:E$200, "&gt;"&amp;$K9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>COUNTIFS(F$2:F$200, "&lt;"&amp;$K10, F$2:F$200, "&gt;"&amp;$K9)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O10">
-        <f>COUNTIFS(G$2:G$200, "&lt;"&amp;$K10, G$2:G$200, "&gt;"&amp;$K9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>COUNTIFS(H$2:H$200, "&lt;"&amp;$K10, H$2:H$200, "&gt;"&amp;$K9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>COUNTIFS(I$2:I$200, "&lt;"&amp;$K10, I$2:I$200, "&gt;"&amp;$K9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14283,27 +14278,27 @@
         <v>5000</v>
       </c>
       <c r="L11">
-        <f>COUNTIFS(D$2:D$200, "&lt;="&amp;$K11, D$2:D$200, "&gt;"&amp;$K10)</f>
+        <f t="shared" ref="L11:Q11" si="5">COUNTIFS(D$2:D$200, "&lt;="&amp;$K11, D$2:D$200, "&gt;"&amp;$K10)</f>
         <v>1</v>
       </c>
       <c r="M11">
-        <f>COUNTIFS(E$2:E$200, "&lt;="&amp;$K11, E$2:E$200, "&gt;"&amp;$K10)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>COUNTIFS(F$2:F$200, "&lt;="&amp;$K11, F$2:F$200, "&gt;"&amp;$K10)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O11">
-        <f>COUNTIFS(G$2:G$200, "&lt;="&amp;$K11, G$2:G$200, "&gt;"&amp;$K10)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>COUNTIFS(H$2:H$200, "&lt;="&amp;$K11, H$2:H$200, "&gt;"&amp;$K10)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q11">
-        <f>COUNTIFS(I$2:I$200, "&lt;="&amp;$K11, I$2:I$200, "&gt;"&amp;$K10)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -14345,27 +14340,27 @@
         <v>190</v>
       </c>
       <c r="L12">
-        <f>COUNTIFS(D$2:D$200,  "&gt;"&amp;$K11)</f>
+        <f t="shared" ref="L12:Q12" si="6">COUNTIFS(D$2:D$200,  "&gt;"&amp;$K11)</f>
         <v>4</v>
       </c>
       <c r="M12">
-        <f>COUNTIFS(E$2:E$200,  "&gt;"&amp;$K11)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>COUNTIFS(F$2:F$200,  "&gt;"&amp;$K11)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>COUNTIFS(G$2:G$200,  "&gt;"&amp;$K11)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>COUNTIFS(H$2:H$200,  "&gt;"&amp;$K11)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q12">
-        <f>COUNTIFS(I$2:I$200,  "&gt;"&amp;$K11)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -14408,23 +14403,23 @@
         <v>8</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:Q13" si="2">SUM(M2:M12)</f>
+        <f t="shared" ref="M13:Q13" si="7">SUM(M2:M12)</f>
         <v>30</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
     </row>
@@ -14590,23 +14585,23 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:Q17" si="3">M13-M15</f>
+        <f t="shared" ref="M17:Q17" si="8">M13-M15</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14621,27 +14616,27 @@
         <v>5</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ref="D18:I33" si="4">IF($C18=D$1,$B18, "")</f>
+        <f t="shared" ref="D18:I33" si="9">IF($C18=D$1,$B18, "")</f>
         <v/>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4277</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -14656,27 +14651,27 @@
         <v>8</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>559</v>
       </c>
     </row>
@@ -14691,27 +14686,27 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1563</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -14726,27 +14721,27 @@
         <v>4</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>216</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -14761,27 +14756,27 @@
         <v>4</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1036</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -14796,27 +14791,27 @@
         <v>4</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>216</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -14831,27 +14826,27 @@
         <v>8</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1182</v>
       </c>
     </row>
@@ -14866,27 +14861,27 @@
         <v>4</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -14901,27 +14896,27 @@
         <v>4</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>304</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -14936,27 +14931,27 @@
         <v>4</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>267</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -14971,27 +14966,27 @@
         <v>8</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>261</v>
       </c>
     </row>
@@ -15006,27 +15001,27 @@
         <v>4</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>216</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -15041,27 +15036,27 @@
         <v>8</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4522</v>
       </c>
     </row>
@@ -15076,27 +15071,27 @@
         <v>8</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>427</v>
       </c>
     </row>
@@ -15111,27 +15106,27 @@
         <v>4</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>305</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -15146,27 +15141,27 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>132</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -15181,27 +15176,27 @@
         <v>7</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:I49" si="5">IF($C34=D$1,$B34, "")</f>
+        <f t="shared" ref="D34:I49" si="10">IF($C34=D$1,$B34, "")</f>
         <v/>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5541</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15216,27 +15211,27 @@
         <v>5</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2107</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15251,27 +15246,27 @@
         <v>7</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1359</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15286,27 +15281,27 @@
         <v>8</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5850</v>
       </c>
     </row>
@@ -15321,27 +15316,27 @@
         <v>8</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1230</v>
       </c>
     </row>
@@ -15356,27 +15351,27 @@
         <v>4</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>197</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15391,27 +15386,27 @@
         <v>6</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1973</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15426,27 +15421,27 @@
         <v>8</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1305</v>
       </c>
     </row>
@@ -15461,27 +15456,27 @@
         <v>6</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>381</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15496,27 +15491,27 @@
         <v>5</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4741</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15531,27 +15526,27 @@
         <v>4</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>288</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15566,27 +15561,27 @@
         <v>8</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3497</v>
       </c>
     </row>
@@ -15601,27 +15596,27 @@
         <v>4</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1136</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15636,27 +15631,27 @@
         <v>5</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1503</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15671,27 +15666,27 @@
         <v>8</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>506</v>
       </c>
     </row>
@@ -15706,27 +15701,27 @@
         <v>4</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>508</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15741,27 +15736,27 @@
         <v>5</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" ref="D50:I65" si="6">IF($C50=D$1,$B50, "")</f>
+        <f t="shared" ref="D50:I65" si="11">IF($C50=D$1,$B50, "")</f>
         <v/>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>479</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15776,27 +15771,27 @@
         <v>8</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3377</v>
       </c>
     </row>
@@ -15811,27 +15806,27 @@
         <v>4</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>326</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15846,27 +15841,27 @@
         <v>4</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15881,27 +15876,27 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6292</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15916,27 +15911,27 @@
         <v>4</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>462</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15951,27 +15946,27 @@
         <v>7</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3075</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15986,27 +15981,27 @@
         <v>8</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2388</v>
       </c>
     </row>
@@ -16021,27 +16016,27 @@
         <v>4</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1550</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -16056,27 +16051,27 @@
         <v>5</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>812</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -16091,27 +16086,27 @@
         <v>3</v>
       </c>
       <c r="D60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>16342</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -16126,27 +16121,27 @@
         <v>4</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1139</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -16161,27 +16156,27 @@
         <v>7</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4593</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -16196,27 +16191,27 @@
         <v>4</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1599</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -16231,27 +16226,27 @@
         <v>5</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>191</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -16266,27 +16261,27 @@
         <v>8</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>509</v>
       </c>
     </row>
@@ -16301,27 +16296,27 @@
         <v>3</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:I70" si="7">IF($C66=D$1,$B66, "")</f>
+        <f t="shared" ref="D66:I70" si="12">IF($C66=D$1,$B66, "")</f>
         <v>13023</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -16336,27 +16331,27 @@
         <v>8</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1459</v>
       </c>
     </row>
@@ -16371,27 +16366,27 @@
         <v>4</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>125</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -16406,27 +16401,27 @@
         <v>4</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>544</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -16441,27 +16436,27 @@
         <v>8</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6237</v>
       </c>
     </row>
